--- a/data/data_dict.xlsx
+++ b/data/data_dict.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/280f49efa6972755/_mydev/galvanize/capstones/cap1/project_init/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/280f49efa6972755/_mydev/galvanize/capstones/cap2/project_init/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="248" documentId="8_{AECD50F5-3034-2946-A86C-0BB26301203B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7FCF7A19-77B9-A944-B633-19F6BDECAD70}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="4880" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{C94F2EF8-81B3-8841-8655-7AC1BEAF64D9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{C94F2EF8-81B3-8841-8655-7AC1BEAF64D9}"/>
   </bookViews>
   <sheets>
     <sheet name="season-1819" sheetId="1" r:id="rId1"/>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306EA1EC-79E5-D749-A02C-9B7828B35037}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C5:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4272,8 +4272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE232AE-99C9-0548-8140-4EB0E6633839}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C60" sqref="B43:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
